--- a/map.xlsx
+++ b/map.xlsx
@@ -384,7 +384,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="26" x14ac:dyDescent="0.25"/>
@@ -397,149 +397,165 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2">
-        <v>4</v>
-      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
       <c r="D1" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2">
-        <v>7</v>
-      </c>
-      <c r="G1" s="3">
         <v>9</v>
       </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
       <c r="H1" s="2">
-        <v>2</v>
-      </c>
-      <c r="I1" s="2">
-        <v>5</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="2">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
         <v>3</v>
       </c>
-      <c r="I2" s="2">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="2"/>
+      <c r="G3" s="3">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2">
+        <v>9</v>
+      </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2">
-        <v>6</v>
-      </c>
-      <c r="G4" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="2">
-        <v>8</v>
-      </c>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
         <v>5</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="2">
-        <v>9</v>
-      </c>
-      <c r="I6" s="2">
-        <v>3</v>
-      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
+      <c r="F7" s="2">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>5</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="2">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
       <c r="H8" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I8" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>9</v>
-      </c>
+      <c r="A9" s="2"/>
       <c r="B9" s="2">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2">
         <v>2</v>
       </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="2">
         <v>4</v>
       </c>
@@ -547,10 +563,10 @@
         <v>5</v>
       </c>
       <c r="G9" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H9" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I9" s="2"/>
     </row>
